--- a/similarities/split_global/harmonic_similarity_timestamps_79.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_79.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,662 +484,686 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G', 'Bb:dim7', 'A:min7', 'D:7']]</t>
+          <t>['E:7/A', 'E:(3,5,b7,b9)/A', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb', 'Bb:dim7', 'C:min7', 'F:7']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:14.530000', '0:00:19.170000')]</t>
+          <t>('0:00:05.080000', '0:00:23.560000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.300000', '0:00:04.070000')]</t>
+          <t>('0:02:20.860000', '0:02:24.100000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=14.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=5.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=140.86</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:17.260000', '0:00:24.340000')]</t>
+          <t>('0:01:23.100000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=17.26']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.071496', '0:00:25.606371')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.840000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=18.071496']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>jaah_53</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G', 'A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:01:12.240000', '0:01:20.180000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:00:42.940000', '0:00:50.310000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=72.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=42.94</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:02.980000', '0:00:08.800000')]</t>
+          <t>('0:00:46.600000', '0:00:49.040000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:03', '0:00:07.380000')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C#:min', 'F#:min', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['G:min', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000'), ('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:19.638843', '0:00:24.623828')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:10.780000'), ('0:00:00.480000', '0:00:08.480000')]</t>
+          <t>('0:00:04.360000', '0:00:07.043000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=19.638843</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=4.36</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb', 'C:min7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['D:min7', 'G:7', 'C', 'D:min7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:40.640000', '0:00:48.830000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:02:03.300000', '0:02:07.900000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=123.3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:04:02.220000', '0:04:09.260000')]</t>
+          <t>('0:01:05.760000', '0:01:11.700000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:19.960000', '0:00:23.020000')]</t>
+          <t>('0:00:40.640000', '0:00:48.100000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=242.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.76</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.96']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:20.648911', '0:00:30.830861')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:05.460000', '0:00:15.600000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=20.648911']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=5.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:00:09.620000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05')]</t>
+          <t>('0:00:23.040000', '0:00:28.920000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Db', 'Eb:min7', 'Ab:7'], ['Gb:maj6', 'Ab:7', 'Db']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:38.860000', '0:00:42.220000'), ('0:00:37.750000', '0:00:41.100000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:06.640000', '0:01:10.980000'), ('0:01:07.560000', '0:01:14.100000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=38.86', 'https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=66.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1148,50 +1172,54 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:04.700000', '0:00:21.620000')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:14.460000', '0:02:17.180000')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=4.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=134.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
